--- a/jcf.xlsx
+++ b/jcf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsegovia\OneDrive - AutoZone Parts, Inc\Documents\Hierarchy tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlopes\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\6BXFW0V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820969EB-9B59-4DE5-A0A7-F6A45D8DB487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C9CE3-2567-4525-9732-FD484B34131F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="2370" windowWidth="25200" windowHeight="11445" activeTab="1" xr2:uid="{3F82A847-ABD6-46C4-A85D-D33F558C5399}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82A847-ABD6-46C4-A85D-D33F558C5399}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="331">
   <si>
     <t>STORE_COD</t>
   </si>
@@ -391,220 +391,430 @@
     <t>São Bernardo Do Campo II</t>
   </si>
   <si>
+    <t>Juliano Santos</t>
+  </si>
+  <si>
+    <t>Diego Gama</t>
+  </si>
+  <si>
+    <t>juliano.santos@autozone.com</t>
+  </si>
+  <si>
+    <t>Erick Santos</t>
+  </si>
+  <si>
+    <t>Sérgio Losso</t>
+  </si>
+  <si>
+    <t>sergio.losso@autozone.com</t>
+  </si>
+  <si>
+    <t>Bruno Silva</t>
+  </si>
+  <si>
+    <t>Rubens Santos</t>
+  </si>
+  <si>
+    <t>Ariene Martin</t>
+  </si>
+  <si>
+    <t>Alex Flavio</t>
+  </si>
+  <si>
+    <t>Fernando Neres</t>
+  </si>
+  <si>
+    <t>ariene.martin@autozone.com</t>
+  </si>
+  <si>
+    <t>fernando.sampaio@autozone.com</t>
+  </si>
+  <si>
+    <t>STORE_OPEN_OR_CLOSE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
+    <t>Marilha</t>
+  </si>
+  <si>
+    <t>Poços de Caldas</t>
+  </si>
+  <si>
+    <t>Ourinhos</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
+    <t>Guaratinguetá</t>
+  </si>
+  <si>
+    <t>Cambé</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Patos de Minas</t>
+  </si>
+  <si>
+    <t>Araxá</t>
+  </si>
+  <si>
+    <t>Apucarana</t>
+  </si>
+  <si>
+    <t>Londrina II</t>
+  </si>
+  <si>
+    <t>Catalão</t>
+  </si>
+  <si>
+    <t>Campo Mourão</t>
+  </si>
+  <si>
+    <t>Itumbiara</t>
+  </si>
+  <si>
+    <t>Campo Largo</t>
+  </si>
+  <si>
+    <t>Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Belo Horizonte ll</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Arapongas</t>
+  </si>
+  <si>
+    <t>Franca ll</t>
+  </si>
+  <si>
+    <t>Araraquara ll</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Curitiba II</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Barra Mansa</t>
+  </si>
+  <si>
+    <t>Aparecida de GO</t>
+  </si>
+  <si>
+    <t>Uberlândia ll</t>
+  </si>
+  <si>
+    <t>Divinópolis</t>
+  </si>
+  <si>
+    <t>Goiânia</t>
+  </si>
+  <si>
+    <t>Maringá</t>
+  </si>
+  <si>
+    <t>Betim</t>
+  </si>
+  <si>
+    <t>Pinhais</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Itaguaí</t>
+  </si>
+  <si>
+    <t>Itaboraí</t>
+  </si>
+  <si>
+    <t>Belo Horizonte lll</t>
+  </si>
+  <si>
+    <t>Itaúna</t>
+  </si>
+  <si>
+    <t>Maricá</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>São José do Rio Preto ll</t>
+  </si>
+  <si>
+    <t>Almirante Tamandaré</t>
+  </si>
+  <si>
+    <t>Aparecida de Goiânia</t>
+  </si>
+  <si>
+    <t>São Paulo Capão Redondo</t>
+  </si>
+  <si>
+    <t>Aberta</t>
+  </si>
+  <si>
+    <t>Fechada</t>
+  </si>
+  <si>
     <t>Douglas Dos Santos</t>
   </si>
   <si>
+    <t>Umbelino Duarte Alves</t>
+  </si>
+  <si>
+    <t>Arnaldo Rodrigues De Azevedo Neto</t>
+  </si>
+  <si>
+    <t>Fernando Vinicio Pereira</t>
+  </si>
+  <si>
+    <t>Lucilene Silva Borba</t>
+  </si>
+  <si>
+    <t>Quetsia Cristina De Carvalho Almeida</t>
+  </si>
+  <si>
+    <t>Raphael De Jesus Benevides</t>
+  </si>
+  <si>
+    <t>Antonio Carlos De Oliveira Junior</t>
+  </si>
+  <si>
+    <t>Paula Da Silva Novaes</t>
+  </si>
+  <si>
+    <t>Jaino Aparecido De Abreu Correa Junior</t>
+  </si>
+  <si>
+    <t>Alan Lucio Alves</t>
+  </si>
+  <si>
+    <t>Andre Campos Breves Dos Santos</t>
+  </si>
+  <si>
+    <t>Iago Nicola Xavier Lopes</t>
+  </si>
+  <si>
+    <t>Daniel Carlos Balbino</t>
+  </si>
+  <si>
+    <t>James Jeferson Dos Santos</t>
+  </si>
+  <si>
+    <t>Renan Efrem Finotello</t>
+  </si>
+  <si>
+    <t>Ricardo Nunes Da Silva</t>
+  </si>
+  <si>
+    <t>Lucas Antonio Sena Dos Santos</t>
+  </si>
+  <si>
+    <t>Jonatas Montanha</t>
+  </si>
+  <si>
+    <t>Jaqueline Santos De Albuquerque</t>
+  </si>
+  <si>
+    <t>Denis Ricardo Da Silva</t>
+  </si>
+  <si>
+    <t>Everton Luiz Bressanin Domingues</t>
+  </si>
+  <si>
+    <t>Vinicius Aparecido Verissimo Santana</t>
+  </si>
+  <si>
+    <t>Thiago Elias De Souza</t>
+  </si>
+  <si>
+    <t>Thayna Medeiros Rodrigues</t>
+  </si>
+  <si>
+    <t>Agnaldo Dos Santos De Jesus</t>
+  </si>
+  <si>
+    <t>Francisca Elizangela Patricio</t>
+  </si>
+  <si>
+    <t>Mirtes Ferreira Ferro</t>
+  </si>
+  <si>
+    <t>Thiago Cesar Barbosa</t>
+  </si>
+  <si>
+    <t>Michel Moises Michreki</t>
+  </si>
+  <si>
+    <t>Allan Vinicius Rodrigues Machado Ribeiro</t>
+  </si>
+  <si>
+    <t>Marcio Kozemekin</t>
+  </si>
+  <si>
+    <t>Rafael Teixeira De Andrade</t>
+  </si>
+  <si>
+    <t>Herica Da Silva Alencar</t>
+  </si>
+  <si>
+    <t>Michel Augusto Camargo</t>
+  </si>
+  <si>
+    <t>Gabriel Lopes Giamundo De Almeida</t>
+  </si>
+  <si>
+    <t>Selma Vitor Dos Santos Bezerra</t>
+  </si>
+  <si>
+    <t>Willian Caitano Silva</t>
+  </si>
+  <si>
+    <t>Rodrigo Antonio Vital</t>
+  </si>
+  <si>
+    <t>Edson Souza Gomes</t>
+  </si>
+  <si>
+    <t>Geraldo Paes De Camargo Junior</t>
+  </si>
+  <si>
+    <t>Emerson Eliezer Ferreira Alves</t>
+  </si>
+  <si>
+    <t>Felipe Cesar Duarte Pereira</t>
+  </si>
+  <si>
+    <t>Pablo Lazaro Drappe Salaro</t>
+  </si>
+  <si>
+    <t>Willian Gomes Da Silva</t>
+  </si>
+  <si>
+    <t>Marcos Jose Alves</t>
+  </si>
+  <si>
+    <t>Andre Galvao Dos Santos</t>
+  </si>
+  <si>
+    <t>Andre Luiz Rubio Da Silva</t>
+  </si>
+  <si>
+    <t>Luis Alexandre Cobra</t>
+  </si>
+  <si>
+    <t>Naiara Cristina Lins Goncalves</t>
+  </si>
+  <si>
+    <t>Evandro Pereira Teixeira</t>
+  </si>
+  <si>
+    <t>Oscar Bezerra Araujo</t>
+  </si>
+  <si>
+    <t>Thales Henrique Santos Siqueira</t>
+  </si>
+  <si>
+    <t>Rodney Valario Da Silva</t>
+  </si>
+  <si>
+    <t>Bruno Monteiro Ballan</t>
+  </si>
+  <si>
+    <t>Danilo Andrade Silva</t>
+  </si>
+  <si>
+    <t>Juan Nilo Martinez Guimaraes</t>
+  </si>
+  <si>
+    <t>Luis Carlos Cichinato</t>
+  </si>
+  <si>
+    <t>Juliana Marques Conceicao</t>
+  </si>
+  <si>
+    <t>Vinicius Bastos Florentino</t>
+  </si>
+  <si>
+    <t>Rafael Costa Henrique De Lima</t>
+  </si>
+  <si>
+    <t>Rodrigo De Freitas</t>
+  </si>
+  <si>
+    <t>Levi Takayama</t>
+  </si>
+  <si>
+    <t>Rosa Eliane Maschio</t>
+  </si>
+  <si>
+    <t>Welliton Pereira Morais</t>
+  </si>
+  <si>
+    <t>Andre Roberto Cantelli</t>
+  </si>
+  <si>
+    <t>Keller Leandro Cuoco</t>
+  </si>
+  <si>
+    <t>Chestertton Magalhaes Dos Santos</t>
+  </si>
+  <si>
+    <t>Pedro Sales Grots</t>
+  </si>
+  <si>
+    <t>Jucelia De Souza</t>
+  </si>
+  <si>
+    <t>Priscilla Evelyn Dos Santos</t>
+  </si>
+  <si>
+    <t>Eduardo Alexandre Dias</t>
+  </si>
+  <si>
+    <t>Ricardo Garcia De Resende</t>
+  </si>
+  <si>
+    <t>Kleber Dias Fagundes</t>
+  </si>
+  <si>
+    <t>Clovis Camilo Eduardo Junior</t>
+  </si>
+  <si>
     <t>Francisco Carlos Aguida</t>
   </si>
   <si>
-    <t>Arnaldo Rodrigues De Azevedo Neto</t>
-  </si>
-  <si>
-    <t>Fernando Vinicio Pereira</t>
-  </si>
-  <si>
-    <t>Lucilene Silva Borba</t>
-  </si>
-  <si>
-    <t>Quetsia Cristina De Carvalho Almeida</t>
-  </si>
-  <si>
-    <t>Selma Vitor Dos Santos Bezerra</t>
-  </si>
-  <si>
-    <t>Paula Da Silva Novaes</t>
-  </si>
-  <si>
-    <t>Jaino Aparecido De Abreu Correa Junior</t>
-  </si>
-  <si>
-    <t>Andre Campos Breves Dos Santos</t>
-  </si>
-  <si>
-    <t>Daniel Carlos Balbino</t>
-  </si>
-  <si>
-    <t>James Jeferson Dos Santos</t>
-  </si>
-  <si>
-    <t>Renan Efrem Finotello</t>
-  </si>
-  <si>
-    <t>Ricardo Nunes Da Silva</t>
-  </si>
-  <si>
-    <t>Jonatas Montanha</t>
-  </si>
-  <si>
-    <t>Jaqueline Santos De Albuquerque</t>
-  </si>
-  <si>
-    <t>Everton Luiz Bressanin Domingues</t>
-  </si>
-  <si>
-    <t>Vinicius Aparecido Verissimo Santana</t>
-  </si>
-  <si>
-    <t>Lucas Antonio Sena Dos Santos</t>
-  </si>
-  <si>
-    <t>Agnaldo Dos Santos De Jesus</t>
-  </si>
-  <si>
-    <t>Francisca Elizangela Patricio</t>
-  </si>
-  <si>
-    <t>Mirtes Ferreira Ferro</t>
-  </si>
-  <si>
-    <t>Thiago Cesar Barbosa</t>
-  </si>
-  <si>
-    <t>Denis Ricardo Da Silva</t>
-  </si>
-  <si>
-    <t>Rafael Teixeira De Andrade</t>
-  </si>
-  <si>
-    <t>Herica Da Silva Alencar</t>
-  </si>
-  <si>
-    <t>Michel Augusto Camargo</t>
-  </si>
-  <si>
-    <t>Gabriel Lopes Giamundo De Almeida</t>
-  </si>
-  <si>
-    <t>Willian Caitano Silva</t>
-  </si>
-  <si>
-    <t>Rodrigo Antonio Vital</t>
-  </si>
-  <si>
-    <t>Edson Souza Gomes</t>
-  </si>
-  <si>
-    <t>Geraldo Paes De Camargo Junior</t>
-  </si>
-  <si>
-    <t>Emerson Eliezer Ferreira Alves</t>
-  </si>
-  <si>
-    <t>Felipe Cesar Duarte Pereira</t>
-  </si>
-  <si>
-    <t>Pablo Lazaro Drappe Salaro</t>
-  </si>
-  <si>
-    <t>Willian Gomes Da Silva</t>
-  </si>
-  <si>
-    <t>Marcos Jose Alves</t>
-  </si>
-  <si>
-    <t>Andre Luiz Rubio Da Silva</t>
-  </si>
-  <si>
-    <t>Alan Lucio Alves</t>
-  </si>
-  <si>
-    <t>Evandro Pereira Teixeira</t>
-  </si>
-  <si>
-    <t>Oscar Bezerra Araujo</t>
-  </si>
-  <si>
-    <t>Thales Henrique Santos Siqueira</t>
-  </si>
-  <si>
-    <t>Rodney Valario Da Silva</t>
-  </si>
-  <si>
-    <t>Luis Alexandre Cobra</t>
-  </si>
-  <si>
-    <t>Danilo Andrade Silva</t>
-  </si>
-  <si>
-    <t>Juan Nilo Martinez Guimaraes</t>
-  </si>
-  <si>
-    <t>Luis Carlos Cichinato</t>
-  </si>
-  <si>
-    <t>Juliana Marques Conceicao</t>
-  </si>
-  <si>
-    <t>Vinicius Bastos Florentino</t>
-  </si>
-  <si>
-    <t>Rafael Costa Henrique De Lima</t>
-  </si>
-  <si>
-    <t>Rosa Eliane Maschio</t>
-  </si>
-  <si>
-    <t>Welliton Pereira Morais</t>
-  </si>
-  <si>
-    <t>Keller Leandro Cuoco</t>
-  </si>
-  <si>
-    <t>Chestertton Magalhaes Dos Santos</t>
-  </si>
-  <si>
-    <t>Pedro Sales Grots</t>
-  </si>
-  <si>
-    <t>Jucelia De Souza</t>
-  </si>
-  <si>
-    <t>Priscilla Evelyn Dos Santos</t>
-  </si>
-  <si>
-    <t>Eduardo Alexandre Dias</t>
-  </si>
-  <si>
-    <t>Ricardo Garcia De Resende</t>
-  </si>
-  <si>
-    <t>Juliano Santos</t>
-  </si>
-  <si>
-    <t>Diego Gama</t>
-  </si>
-  <si>
-    <t>juliano.santos@autozone.com</t>
-  </si>
-  <si>
-    <t>Erick Santos</t>
-  </si>
-  <si>
-    <t>Sérgio Losso</t>
-  </si>
-  <si>
-    <t>sergio.losso@autozone.com</t>
-  </si>
-  <si>
-    <t>Bruno Silva</t>
-  </si>
-  <si>
-    <t>Umbelino Duarte Alves</t>
-  </si>
-  <si>
-    <t>Allan Vinicius Rodrigues Machado Ribeiro</t>
-  </si>
-  <si>
-    <t>Naiara Cristina Lins Goncalves</t>
-  </si>
-  <si>
-    <t>Rodrigo De Freitas</t>
-  </si>
-  <si>
-    <t>Levi Takayama</t>
-  </si>
-  <si>
-    <t>Andre Roberto Cantelli</t>
+    <t>Leo Carlos Sant Ana</t>
+  </si>
+  <si>
+    <t>Flaviane Souza Campos</t>
+  </si>
+  <si>
+    <t>Cristiane Conceicao Ferreira Silva</t>
+  </si>
+  <si>
+    <t>Joao Batista Borges Junior</t>
   </si>
   <si>
     <t>Allerson Antunes Do Nascimento</t>
@@ -613,12 +823,18 @@
     <t>Rodrigo Da Silva Aragao</t>
   </si>
   <si>
+    <t>Jose Luciano Siqueira Junho</t>
+  </si>
+  <si>
     <t>Gabriel Felipe Santos De Freitas</t>
   </si>
   <si>
     <t>Bruno Bravo</t>
   </si>
   <si>
+    <t>Rene Caldeira Da Silva</t>
+  </si>
+  <si>
     <t>Gabriel Santos Silva</t>
   </si>
   <si>
@@ -628,12 +844,18 @@
     <t>William Felipe De Castro</t>
   </si>
   <si>
+    <t>Luiz Henrique Dos Santos</t>
+  </si>
+  <si>
     <t>Helder Patrick De Paula Silva</t>
   </si>
   <si>
     <t>Tiago Henrique Basilio</t>
   </si>
   <si>
+    <t>Diogo Henrique Aquino</t>
+  </si>
+  <si>
     <t>Lucas Vinicius De Almeida Vieira</t>
   </si>
   <si>
@@ -658,12 +880,21 @@
     <t>Murillo Otechar De Matos</t>
   </si>
   <si>
+    <t>Jefferson Alves Ferreira</t>
+  </si>
+  <si>
+    <t>Ellen Mayara Da Conceicao</t>
+  </si>
+  <si>
     <t>Douglas Alcides Rocha</t>
   </si>
   <si>
     <t>Roni Everton De Oliveira Silva</t>
   </si>
   <si>
+    <t>Amanda Thais De Jesus Camota</t>
+  </si>
+  <si>
     <t>Fabio Santos Ferreira</t>
   </si>
   <si>
@@ -673,7 +904,13 @@
     <t>Carlos Alberto Dos Santos Junior</t>
   </si>
   <si>
-    <t>Marcio Kozemekin</t>
+    <t>Wilson Rogerio Dias Da Silva</t>
+  </si>
+  <si>
+    <t>Victor Hugo De Oliveira Flavio</t>
+  </si>
+  <si>
+    <t>Franciele De Souza Santos</t>
   </si>
   <si>
     <t>Diego Luiz Ribeiro</t>
@@ -697,7 +934,13 @@
     <t>Jackson Murilo De Souza Coelho</t>
   </si>
   <si>
-    <t>Diogo Henrique Aquino</t>
+    <t>Samuel De Camargo Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>Caio Cesar Carmona Cardoso</t>
+  </si>
+  <si>
+    <t>Weslley Teles De Araujo Doarte</t>
   </si>
   <si>
     <t>Rodrigo Hansen Vaz</t>
@@ -709,6 +952,9 @@
     <t>Tharcisio De Oliveira Silva</t>
   </si>
   <si>
+    <t>Ariel Augusto Pedroso Gimeni</t>
+  </si>
+  <si>
     <t>Fabio Soares Dos Reis</t>
   </si>
   <si>
@@ -718,6 +964,12 @@
     <t>Sergio Marques De Oliveira Junior</t>
   </si>
   <si>
+    <t>Eron Ferreira Tamashiro Nobrega</t>
+  </si>
+  <si>
+    <t>Camila Carini Costa</t>
+  </si>
+  <si>
     <t>Naianne Aline De Oliveira Rodrigues Andrade</t>
   </si>
   <si>
@@ -727,6 +979,9 @@
     <t>Natalia Cristina Minduca</t>
   </si>
   <si>
+    <t>Odirlei Dos Santos</t>
+  </si>
+  <si>
     <t>Rogerio Marcio Megiani</t>
   </si>
   <si>
@@ -742,6 +997,15 @@
     <t>Paulo Cesar Barbosa Gomes</t>
   </si>
   <si>
+    <t>Leandro Dias Carvalho</t>
+  </si>
+  <si>
+    <t>Renato Bassani Parangaba</t>
+  </si>
+  <si>
+    <t>Pablo Ruiz Calistro</t>
+  </si>
+  <si>
     <t>Heitor Reche Nemi</t>
   </si>
   <si>
@@ -754,277 +1018,19 @@
     <t>Thiago De Paula Santana</t>
   </si>
   <si>
+    <t>Jonathan Willian Da Silva Leite Rocha</t>
+  </si>
+  <si>
     <t>Higor Guibson De Oliveira</t>
   </si>
   <si>
+    <t>Guilherme Augusto Silva Borges</t>
+  </si>
+  <si>
+    <t>Daiana Da Silva Ferreira</t>
+  </si>
+  <si>
     <t>Fernando Manoel Da Silva</t>
-  </si>
-  <si>
-    <t>Thayna Medeiros Rodrigues</t>
-  </si>
-  <si>
-    <t>Michel Moises Michreki</t>
-  </si>
-  <si>
-    <t>Bruno Monteiro Ballan</t>
-  </si>
-  <si>
-    <t>Cristiane Conceicao Ferreira Silva</t>
-  </si>
-  <si>
-    <t>Leandro Dias Carvalho</t>
-  </si>
-  <si>
-    <t>Wilson Rogerio Dias Da Silva</t>
-  </si>
-  <si>
-    <t>Caio Cesar Carmona Cardoso</t>
-  </si>
-  <si>
-    <t>Ariel Augusto Pedroso Gimeni</t>
-  </si>
-  <si>
-    <t>Renato Bassani Parangaba</t>
-  </si>
-  <si>
-    <t>Andre Galvao Dos Santos</t>
-  </si>
-  <si>
-    <t>Amanda Thais De Jesus Camota</t>
-  </si>
-  <si>
-    <t>Rubens Santos</t>
-  </si>
-  <si>
-    <t>Ariene Martin</t>
-  </si>
-  <si>
-    <t>Alex Flavio</t>
-  </si>
-  <si>
-    <t>Fernando Neres</t>
-  </si>
-  <si>
-    <t>ariene.martin@autozone.com</t>
-  </si>
-  <si>
-    <t>fernando.sampaio@autozone.com</t>
-  </si>
-  <si>
-    <t>Pablo Ruiz Calistro</t>
-  </si>
-  <si>
-    <t>Franciele De Souza Santos</t>
-  </si>
-  <si>
-    <t>Jose Luciano Siqueira Junho</t>
-  </si>
-  <si>
-    <t>Rene Caldeira Da Silva</t>
-  </si>
-  <si>
-    <t>Victor Hugo De Oliveira Flavio</t>
-  </si>
-  <si>
-    <t>Weslley Teles De Araujo Doarte</t>
-  </si>
-  <si>
-    <t>Antonio Carlos De Oliveira Junior</t>
-  </si>
-  <si>
-    <t>Odirlei Dos Santos</t>
-  </si>
-  <si>
-    <t>STORE_OPEN_OR_CLOSE</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
-    <t>Marilha</t>
-  </si>
-  <si>
-    <t>Poços de Caldas</t>
-  </si>
-  <si>
-    <t>Ourinhos</t>
-  </si>
-  <si>
-    <t>Uberlândia</t>
-  </si>
-  <si>
-    <t>Guaratinguetá</t>
-  </si>
-  <si>
-    <t>Cambé</t>
-  </si>
-  <si>
-    <t>Londrina</t>
-  </si>
-  <si>
-    <t>Patos de Minas</t>
-  </si>
-  <si>
-    <t>Araxá</t>
-  </si>
-  <si>
-    <t>Raphael De Jesus Benevides</t>
-  </si>
-  <si>
-    <t>Iago Nicola Xavier Lopes</t>
-  </si>
-  <si>
-    <t>Thiago Elias De Souza</t>
-  </si>
-  <si>
-    <t>Ronivaldo Moreira Da Silva</t>
-  </si>
-  <si>
-    <t>Jefferson Alves Ferreira</t>
-  </si>
-  <si>
-    <t>Ellen Mayara Da Conceicao</t>
-  </si>
-  <si>
-    <t>Eron Ferreira Tamashiro Nobrega</t>
-  </si>
-  <si>
-    <t>Camila Carini Costa</t>
-  </si>
-  <si>
-    <t>Jonathan Willian Da Silva Leite Rocha</t>
-  </si>
-  <si>
-    <t>Apucarana</t>
-  </si>
-  <si>
-    <t>Londrina II</t>
-  </si>
-  <si>
-    <t>Catalão</t>
-  </si>
-  <si>
-    <t>Campo Mourão</t>
-  </si>
-  <si>
-    <t>Itumbiara</t>
-  </si>
-  <si>
-    <t>Campo Largo</t>
-  </si>
-  <si>
-    <t>Ponta Grossa</t>
-  </si>
-  <si>
-    <t>Belo Horizonte ll</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Arapongas</t>
-  </si>
-  <si>
-    <t>Franca ll</t>
-  </si>
-  <si>
-    <t>Araraquara ll</t>
-  </si>
-  <si>
-    <t>Joinville</t>
-  </si>
-  <si>
-    <t>Curitiba II</t>
-  </si>
-  <si>
-    <t>Curitiba</t>
-  </si>
-  <si>
-    <t>Barra Mansa</t>
-  </si>
-  <si>
-    <t>Aparecida de GO</t>
-  </si>
-  <si>
-    <t>Uberlândia ll</t>
-  </si>
-  <si>
-    <t>Divinópolis</t>
-  </si>
-  <si>
-    <t>Goiânia</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
-    <t>Betim</t>
-  </si>
-  <si>
-    <t>Pinhais</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
-  </si>
-  <si>
-    <t>Itaguaí</t>
-  </si>
-  <si>
-    <t>Itaboraí</t>
-  </si>
-  <si>
-    <t>Belo Horizonte lll</t>
-  </si>
-  <si>
-    <t>Itaúna</t>
-  </si>
-  <si>
-    <t>Maricá</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>São José do Rio Preto ll</t>
-  </si>
-  <si>
-    <t>Almirante Tamandaré</t>
-  </si>
-  <si>
-    <t>Aparecida de Goiânia</t>
-  </si>
-  <si>
-    <t>Kleber Dias Fagundes</t>
-  </si>
-  <si>
-    <t>Clovis Camilo Eduardo Junior</t>
-  </si>
-  <si>
-    <t>Leo Carlos Santana</t>
-  </si>
-  <si>
-    <t>Flaviane Souza Campos</t>
-  </si>
-  <si>
-    <t>Marcio Vaz Pires Junior</t>
-  </si>
-  <si>
-    <t>Daiana Da Silva Ferreira</t>
-  </si>
-  <si>
-    <t>São Paulo Capão Redondo</t>
-  </si>
-  <si>
-    <t>Aberta</t>
-  </si>
-  <si>
-    <t>Fechada</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1200,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1211,7 +1217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1512,8 +1518,8 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -1578,28 +1584,28 @@
         <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E2" s="4">
         <v>10985662</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="G2" s="4">
         <v>10985680</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J2" s="4">
         <v>10985343</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1610,16 +1616,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E3" s="4">
         <v>10985377</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G3" s="4">
         <v>10985745</v>
@@ -1634,7 +1640,7 @@
         <v>10985679</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1645,22 +1651,22 @@
         <v>90</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4">
         <v>10985448</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="G4" s="4">
         <v>10985543</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
@@ -1669,7 +1675,7 @@
         <v>10986786</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1683,19 +1689,19 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4">
         <v>10985689</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="G5" s="4">
         <v>10985545</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>12</v>
@@ -1704,7 +1710,7 @@
         <v>10985637</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1715,16 +1721,16 @@
         <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4">
         <v>10985754</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="G6" s="4">
         <v>10985745</v>
@@ -1749,28 +1755,28 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4">
         <v>10985720</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="G7" s="4">
         <v>10985680</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J7" s="4">
         <v>10985522</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,16 +1787,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E8" s="4">
         <v>10985684</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4">
         <v>10985745</v>
@@ -1805,7 +1811,7 @@
         <v>10986605</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,13 +1825,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4">
         <v>10985767</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="G9" s="4">
         <v>10985745</v>
@@ -1840,7 +1846,7 @@
         <v>10985814</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1848,13 +1854,13 @@
         <v>7610</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1875,13 +1881,13 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E11" s="4">
         <v>10985541</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="G11" s="4">
         <v>10985745</v>
@@ -1896,7 +1902,7 @@
         <v>10985449</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1910,19 +1916,19 @@
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E12" s="4">
         <v>10985575</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="G12" s="4">
         <v>10985557</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>87</v>
@@ -1931,7 +1937,7 @@
         <v>10985368</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1945,25 +1951,29 @@
         <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E13" s="4">
         <v>10985565</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="G13" s="4">
         <v>10985543</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="4">
+        <v>10985874</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1976,22 +1986,22 @@
         <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E14" s="4">
         <v>10985668</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="G14" s="4">
         <v>10985680</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2007,19 +2017,19 @@
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E15" s="4">
         <v>10985879</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="G15" s="4">
         <v>10985545</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>12</v>
@@ -2028,7 +2038,7 @@
         <v>10985700</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2042,19 +2052,19 @@
         <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E16" s="4">
         <v>10985691</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G16" s="4">
         <v>10985557</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>87</v>
@@ -2063,7 +2073,7 @@
         <v>10985622</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2077,28 +2087,28 @@
         <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E17" s="4">
         <v>10985762</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="G17" s="4">
         <v>10985680</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J17" s="4">
         <v>10985499</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2112,28 +2122,28 @@
         <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E18" s="4">
         <v>10985551</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="G18" s="4">
         <v>10985680</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J18" s="4">
         <v>10985408</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,28 +2157,28 @@
         <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E19" s="4">
         <v>10985673</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="G19" s="4">
         <v>10985680</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J19" s="4">
         <v>10985793</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2182,13 +2192,13 @@
         <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E20" s="4">
         <v>10985710</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="G20" s="4">
         <v>10985315</v>
@@ -2203,7 +2213,7 @@
         <v>10985380</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2217,13 +2227,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E21" s="4">
         <v>10985909</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="G21" s="4">
         <v>10985753</v>
@@ -2238,7 +2248,7 @@
         <v>10985471</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2252,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E22" s="4">
         <v>10985340</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="G22" s="4">
         <v>10985315</v>
@@ -2273,7 +2283,7 @@
         <v>10985341</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2287,19 +2297,19 @@
         <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E23" s="4">
         <v>10985584</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="G23" s="4">
         <v>10985557</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>87</v>
@@ -2308,7 +2318,7 @@
         <v>10986591</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2322,13 +2332,13 @@
         <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E24" s="4">
         <v>10985580</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="G24" s="4">
         <v>10985753</v>
@@ -2343,7 +2353,7 @@
         <v>10985578</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2357,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E25" s="4">
         <v>10985661</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="G25" s="4">
         <v>10985753</v>
@@ -2378,7 +2388,7 @@
         <v>10985811</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2392,28 +2402,28 @@
         <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E26" s="4">
         <v>10985494</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="G26" s="4">
         <v>10985680</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J26" s="4">
         <v>10985451</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2427,13 +2437,13 @@
         <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E27" s="4">
         <v>10985832</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="G27" s="4">
         <v>10985315</v>
@@ -2448,7 +2458,7 @@
         <v>10985629</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2462,19 +2472,19 @@
         <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E28" s="4">
         <v>10985404</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="G28" s="4">
         <v>10985543</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>11</v>
@@ -2483,7 +2493,7 @@
         <v>10985379</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2494,16 +2504,16 @@
         <v>44</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E29" s="4">
         <v>10985749</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="G29" s="4">
         <v>10985745</v>
@@ -2518,7 +2528,7 @@
         <v>10985604</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2532,13 +2542,13 @@
         <v>45</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E30" s="4">
         <v>10985667</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="G30" s="4">
         <v>10985745</v>
@@ -2553,7 +2563,7 @@
         <v>10985687</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2567,19 +2577,19 @@
         <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E31" s="4">
         <v>10985809</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="G31" s="4">
         <v>10985543</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>11</v>
@@ -2588,7 +2598,7 @@
         <v>10985788</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2602,19 +2612,19 @@
         <v>47</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E32" s="4">
         <v>10985721</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G32" s="4">
         <v>10985543</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>11</v>
@@ -2623,7 +2633,7 @@
         <v>10985621</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2637,28 +2647,28 @@
         <v>48</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E33" s="4">
         <v>10985357</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G33" s="4">
         <v>10985680</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J33" s="4">
         <v>10985800</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2672,19 +2682,19 @@
         <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E34" s="4">
         <v>10985324</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" s="4">
         <v>10985557</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>87</v>
@@ -2693,7 +2703,7 @@
         <v>10987048</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2707,19 +2717,19 @@
         <v>50</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E35" s="4">
         <v>10985502</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="G35" s="4">
         <v>10985543</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>11</v>
@@ -2728,7 +2738,7 @@
         <v>10985948</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2742,19 +2752,19 @@
         <v>51</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E36" s="4">
         <v>10986923</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="G36" s="4">
         <v>10985557</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>87</v>
@@ -2763,7 +2773,7 @@
         <v>10986746</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2777,28 +2787,28 @@
         <v>52</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E37" s="4">
         <v>10985828</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="G37" s="4">
         <v>10985680</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J37" s="4">
         <v>10986016</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2812,19 +2822,19 @@
         <v>53</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E38" s="4">
         <v>10985461</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="G38" s="4">
         <v>10985545</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>12</v>
@@ -2833,7 +2843,7 @@
         <v>10985626</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2847,13 +2857,13 @@
         <v>54</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E39" s="4">
         <v>10985495</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="G39" s="4">
         <v>10985745</v>
@@ -2868,7 +2878,7 @@
         <v>10985430</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2882,13 +2892,13 @@
         <v>24</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E40" s="4">
         <v>10985337</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="G40" s="4">
         <v>10985745</v>
@@ -2903,7 +2913,7 @@
         <v>10985574</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2917,19 +2927,19 @@
         <v>55</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E41" s="4">
         <v>10985816</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="G41" s="4">
         <v>10985543</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>11</v>
@@ -2938,7 +2948,7 @@
         <v>10986662</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2952,7 +2962,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2969,7 +2979,7 @@
         <v>10985316</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,13 +2993,13 @@
         <v>57</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E43" s="4">
         <v>10985596</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="G43" s="4">
         <v>10985745</v>
@@ -3004,7 +3014,7 @@
         <v>10985400</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,25 +3028,29 @@
         <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E44" s="4">
         <v>10985819</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="G44" s="4">
         <v>10985680</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="J44" s="4">
+        <v>10985454</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -3046,16 +3060,16 @@
         <v>58</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E45" s="4">
         <v>10985594</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="G45" s="4">
         <v>10985753</v>
@@ -3070,7 +3084,7 @@
         <v>10986039</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3084,19 +3098,19 @@
         <v>59</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E46" s="4">
         <v>10985544</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="G46" s="4">
         <v>10985543</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>11</v>
@@ -3105,7 +3119,7 @@
         <v>10986896</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3119,7 +3133,7 @@
         <v>60</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3127,7 +3141,7 @@
         <v>10985557</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>87</v>
@@ -3146,19 +3160,19 @@
         <v>61</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E48" s="4">
         <v>10985628</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="G48" s="4">
         <v>10985545</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>12</v>
@@ -3167,7 +3181,7 @@
         <v>10986568</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3181,7 +3195,7 @@
         <v>28</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -3189,10 +3203,10 @@
         <v>10985680</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3208,13 +3222,13 @@
         <v>63</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E50" s="4">
         <v>10985635</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="G50" s="4">
         <v>10985702</v>
@@ -3229,7 +3243,7 @@
         <v>10986771</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3243,19 +3257,19 @@
         <v>53</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E51" s="4">
         <v>10985617</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="G51" s="4">
         <v>10985545</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>12</v>
@@ -3264,7 +3278,7 @@
         <v>10985649</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3278,19 +3292,19 @@
         <v>64</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E52" s="4">
         <v>10985823</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G52" s="4">
         <v>10985543</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>11</v>
@@ -3299,7 +3313,7 @@
         <v>10985478</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3313,13 +3327,13 @@
         <v>65</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E53" s="4">
         <v>10986801</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="G53" s="4">
         <v>10985702</v>
@@ -3334,7 +3348,7 @@
         <v>10985480</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3348,19 +3362,19 @@
         <v>25</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E54" s="4">
         <v>10985713</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="G54" s="4">
         <v>10985557</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>87</v>
@@ -3369,7 +3383,7 @@
         <v>10985898</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3383,14 +3397,10 @@
         <v>66</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2164</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>281</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="4">
         <v>10985702</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>10986948</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3418,13 +3428,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E56" s="4">
         <v>10985707</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="G56" s="4">
         <v>10985315</v>
@@ -3439,7 +3449,7 @@
         <v>10985927</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3453,13 +3463,13 @@
         <v>68</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E57" s="4">
         <v>10986577</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="G57" s="4">
         <v>10985753</v>
@@ -3471,10 +3481,10 @@
         <v>36</v>
       </c>
       <c r="J57" s="4">
-        <v>2165</v>
+        <v>10987258</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3488,19 +3498,19 @@
         <v>69</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E58" s="4">
         <v>10985505</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="G58" s="4">
         <v>10985543</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>11</v>
@@ -3509,7 +3519,7 @@
         <v>10985959</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3523,19 +3533,19 @@
         <v>70</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E59" s="4">
         <v>10985561</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="G59" s="4">
         <v>10985545</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>12</v>
@@ -3544,7 +3554,7 @@
         <v>10985928</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,19 +3568,19 @@
         <v>71</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E60" s="4">
         <v>10985592</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="G60" s="4">
         <v>10985557</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>87</v>
@@ -3579,7 +3589,7 @@
         <v>10986574</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="L60" s="4"/>
     </row>
@@ -3594,7 +3604,7 @@
         <v>72</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3602,7 +3612,7 @@
         <v>10985557</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>87</v>
@@ -3621,19 +3631,19 @@
         <v>73</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E62" s="4">
         <v>10986560</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G62" s="4">
         <v>10985557</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>87</v>
@@ -3652,13 +3662,13 @@
         <v>74</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E63" s="4">
         <v>10985760</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="G63" s="4">
         <v>10985315</v>
@@ -3670,10 +3680,10 @@
         <v>26</v>
       </c>
       <c r="J63" s="4">
-        <v>2134</v>
+        <v>10987224</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3687,19 +3697,19 @@
         <v>75</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E64" s="4">
         <v>10987012</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="G64" s="4">
         <v>10985557</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>87</v>
@@ -3708,7 +3718,7 @@
         <v>10987051</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,13 +3732,13 @@
         <v>83</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E65" s="4">
         <v>10985727</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="G65" s="4">
         <v>10985753</v>
@@ -3743,7 +3753,7 @@
         <v>10986798</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3757,13 +3767,13 @@
         <v>84</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E66" s="4">
         <v>10985724</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="G66" s="4">
         <v>10985315</v>
@@ -3778,7 +3788,7 @@
         <v>10985375</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3789,16 +3799,16 @@
         <v>91</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E67" s="4">
         <v>10986891</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="G67" s="4">
         <v>10985702</v>
@@ -3813,7 +3823,7 @@
         <v>10986659</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3827,13 +3837,13 @@
         <v>88</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E68" s="4">
         <v>10985323</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="G68" s="4">
         <v>10985753</v>
@@ -3848,7 +3858,7 @@
         <v>10986878</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3859,16 +3869,16 @@
         <v>105</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="E69" s="4">
         <v>10985558</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="G69" s="4">
         <v>10985745</v>
@@ -3883,7 +3893,7 @@
         <v>10985678</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3897,13 +3907,13 @@
         <v>85</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="E70" s="4">
         <v>10987056</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G70" s="4">
         <v>10985753</v>
@@ -3918,7 +3928,7 @@
         <v>10987138</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3932,13 +3942,13 @@
         <v>76</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E71" s="4">
         <v>10985431</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="G71" s="4">
         <v>10985702</v>
@@ -3963,13 +3973,13 @@
         <v>106</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E72" s="4">
         <v>10987041</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="G72" s="4">
         <v>10985315</v>
@@ -3991,16 +4001,16 @@
         <v>92</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="E73" s="4">
         <v>10985824</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="G73" s="4">
         <v>10985753</v>
@@ -4015,7 +4025,7 @@
         <v>10987156</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4029,7 +4039,7 @@
         <v>93</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4053,16 +4063,16 @@
         <v>94</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E75" s="4">
         <v>10986735</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="G75" s="4">
         <v>10985702</v>
@@ -4077,7 +4087,7 @@
         <v>10986840</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4088,22 +4098,22 @@
         <v>89</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E76" s="4">
         <v>10985563</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="G76" s="4">
         <v>10985545</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>12</v>
@@ -4112,7 +4122,7 @@
         <v>10985396</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4123,10 +4133,10 @@
         <v>107</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4153,7 +4163,7 @@
         <v>95</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4177,10 +4187,10 @@
         <v>108</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -4207,19 +4217,19 @@
         <v>53</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E80" s="4">
         <v>10985612</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="G80" s="4">
         <v>10985545</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>12</v>
@@ -4228,7 +4238,7 @@
         <v>10985711</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4239,16 +4249,16 @@
         <v>96</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E81" s="4">
         <v>10986937</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="G81" s="4">
         <v>10985753</v>
@@ -4263,7 +4273,7 @@
         <v>10987027</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4277,7 +4287,7 @@
         <v>109</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4301,16 +4311,16 @@
         <v>97</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E83" s="4">
         <v>10986936</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="G83" s="4">
         <v>10985753</v>
@@ -4325,7 +4335,7 @@
         <v>10987030</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4336,16 +4346,16 @@
         <v>98</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E84" s="4">
         <v>10986751</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="G84" s="4">
         <v>10985702</v>
@@ -4360,7 +4370,7 @@
         <v>10986864</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4371,16 +4381,16 @@
         <v>99</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E85" s="4">
         <v>10986975</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="G85" s="4">
         <v>10985702</v>
@@ -4391,21 +4401,25 @@
       <c r="I85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="J85" s="4">
+        <v>10987067</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>9413</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4426,7 +4440,7 @@
         <v>76</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4447,19 +4461,19 @@
         <v>9416</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E88" s="4">
         <v>10985690</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="G88" s="4">
         <v>10985753</v>
@@ -4474,7 +4488,7 @@
         <v>10987147</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4482,13 +4496,13 @@
         <v>9417</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4503,19 +4517,19 @@
         <v>9419</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E90" s="4">
         <v>10987226</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="G90" s="4">
         <v>10985753</v>
@@ -4534,13 +4548,13 @@
         <v>9421</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4561,13 +4575,13 @@
         <v>106</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E92" s="4">
         <v>10985595</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="G92" s="4">
         <v>10985315</v>
@@ -4589,10 +4603,10 @@
         <v>112</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4616,10 +4630,10 @@
         <v>113</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4640,13 +4654,13 @@
         <v>9427</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>307</v>
+        <v>163</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>307</v>
+        <v>163</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -4661,13 +4675,13 @@
         <v>9429</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4688,7 +4702,7 @@
         <v>23</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4709,13 +4723,13 @@
         <v>9431</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4723,7 +4737,7 @@
         <v>10985557</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>87</v>
@@ -4736,13 +4750,13 @@
         <v>9432</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4763,7 +4777,7 @@
         <v>115</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4784,13 +4798,13 @@
         <v>9436</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4805,13 +4819,13 @@
         <v>9437</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>318</v>
+        <v>174</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -4826,13 +4840,13 @@
         <v>9438</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -4847,13 +4861,13 @@
         <v>9439</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -4868,13 +4882,13 @@
         <v>9440</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4889,13 +4903,13 @@
         <v>9442</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -4910,13 +4924,13 @@
         <v>9443</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4931,19 +4945,19 @@
         <v>9444</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E108" s="4">
         <v>10987252</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="G108" s="4">
         <v>10985753</v>
@@ -4962,13 +4976,13 @@
         <v>9446</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4983,13 +4997,13 @@
         <v>9448</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5004,19 +5018,19 @@
         <v>9449</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E111" s="4">
-        <v>2169</v>
+        <v>10987262</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="G111" s="4">
         <v>10985702</v>
@@ -5035,13 +5049,13 @@
         <v>9451</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5062,13 +5076,13 @@
         <v>37</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E113" s="4">
         <v>10985605</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G113" s="4">
         <v>10985315</v>
@@ -5083,7 +5097,7 @@
         <v>10985388</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5091,13 +5105,13 @@
         <v>9454</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5112,13 +5126,13 @@
         <v>9456</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5133,13 +5147,13 @@
         <v>9458</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5154,13 +5168,13 @@
         <v>9459</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>314</v>
+        <v>170</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>314</v>
+        <v>170</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -5175,13 +5189,13 @@
         <v>9460</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -5196,13 +5210,13 @@
         <v>9461</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5217,13 +5231,13 @@
         <v>9462</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -5238,13 +5252,13 @@
         <v>9463</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5259,19 +5273,19 @@
         <v>9464</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E122" s="4">
-        <v>10987236</v>
+        <v>10987280</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="G122" s="4">
         <v>10985702</v>
@@ -5290,13 +5304,13 @@
         <v>9465</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -5382,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68470A8-F4F1-4977-A75D-8A88FD0D57B1}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5435,16 +5449,16 @@
         <v>10985680</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F2" s="4">
         <v>10985550</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>82</v>
@@ -5470,10 +5484,10 @@
         <v>10985381</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5487,7 +5501,7 @@
         <v>10985543</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
@@ -5496,10 +5510,10 @@
         <v>10985895</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5513,7 +5527,7 @@
         <v>10985545</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -5522,7 +5536,7 @@
         <v>10985743</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
@@ -5548,10 +5562,10 @@
         <v>10985381</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,16 +5579,16 @@
         <v>10985680</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F7" s="4">
         <v>10985550</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>82</v>
@@ -5600,7 +5614,7 @@
         <v>10985743</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
@@ -5626,7 +5640,7 @@
         <v>10985743</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
@@ -5652,10 +5666,10 @@
         <v>10985381</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,7 +5683,7 @@
         <v>10985557</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>87</v>
@@ -5678,10 +5692,10 @@
         <v>10985588</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5695,7 +5709,7 @@
         <v>10985543</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -5704,10 +5718,10 @@
         <v>10985895</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,16 +5735,16 @@
         <v>10985680</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F13" s="4">
         <v>10985550</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>82</v>
@@ -5747,7 +5761,7 @@
         <v>10985545</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -5756,7 +5770,7 @@
         <v>10985743</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>10</v>
@@ -5773,7 +5787,7 @@
         <v>10985557</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>87</v>
@@ -5782,10 +5796,10 @@
         <v>10985588</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,16 +5813,16 @@
         <v>10985680</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F16" s="4">
         <v>10985550</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>82</v>
@@ -5825,16 +5839,16 @@
         <v>10985680</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F17" s="4">
         <v>10985550</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>82</v>
@@ -5851,16 +5865,16 @@
         <v>10985680</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F18" s="4">
         <v>10985550</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>82</v>
@@ -5886,10 +5900,10 @@
         <v>10985381</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5938,10 +5952,10 @@
         <v>10985381</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5955,7 +5969,7 @@
         <v>10985557</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>87</v>
@@ -5964,10 +5978,10 @@
         <v>10985588</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,16 +6047,16 @@
         <v>10985680</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F25" s="4">
         <v>10985550</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>82</v>
@@ -6068,10 +6082,10 @@
         <v>10985381</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,7 +6099,7 @@
         <v>10985543</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>11</v>
@@ -6094,10 +6108,10 @@
         <v>10985895</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6120,7 +6134,7 @@
         <v>10985743</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>10</v>
@@ -6146,10 +6160,10 @@
         <v>10985381</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6163,7 +6177,7 @@
         <v>10985543</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -6172,10 +6186,10 @@
         <v>10985895</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,7 +6203,7 @@
         <v>10985543</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -6198,10 +6212,10 @@
         <v>10985895</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -6215,16 +6229,16 @@
         <v>10985680</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F32" s="4">
         <v>10985550</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>82</v>
@@ -6241,7 +6255,7 @@
         <v>10985557</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>87</v>
@@ -6250,10 +6264,10 @@
         <v>10985588</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6267,7 +6281,7 @@
         <v>10985543</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>11</v>
@@ -6276,10 +6290,10 @@
         <v>10985895</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6293,7 +6307,7 @@
         <v>10985557</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>87</v>
@@ -6302,10 +6316,10 @@
         <v>10985588</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6319,16 +6333,16 @@
         <v>10985680</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F36" s="4">
         <v>10985550</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>82</v>
@@ -6345,7 +6359,7 @@
         <v>10985545</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -6354,7 +6368,7 @@
         <v>10985743</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>10</v>
@@ -6380,7 +6394,7 @@
         <v>10985743</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>10</v>
@@ -6406,10 +6420,10 @@
         <v>10985381</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -6423,7 +6437,7 @@
         <v>10985543</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>11</v>
@@ -6432,10 +6446,10 @@
         <v>10985895</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -6458,7 +6472,7 @@
         <v>10985743</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>10</v>
@@ -6484,10 +6498,10 @@
         <v>10985381</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -6501,16 +6515,16 @@
         <v>10985680</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F43" s="4">
         <v>10985550</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>82</v>
@@ -6553,7 +6567,7 @@
         <v>10985543</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>11</v>
@@ -6562,10 +6576,10 @@
         <v>10985895</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -6579,7 +6593,7 @@
         <v>10985557</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>87</v>
@@ -6588,10 +6602,10 @@
         <v>10985588</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -6605,7 +6619,7 @@
         <v>10985545</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
@@ -6614,7 +6628,7 @@
         <v>10985743</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>10</v>
@@ -6631,16 +6645,16 @@
         <v>10985680</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F48" s="4">
         <v>10985550</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>82</v>
@@ -6666,10 +6680,10 @@
         <v>10985588</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6683,7 +6697,7 @@
         <v>10985545</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>12</v>
@@ -6692,7 +6706,7 @@
         <v>10985743</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>10</v>
@@ -6709,7 +6723,7 @@
         <v>10985543</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>11</v>
@@ -6718,10 +6732,10 @@
         <v>10985895</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6744,10 +6758,10 @@
         <v>10985588</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6761,7 +6775,7 @@
         <v>10985557</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>87</v>
@@ -6770,10 +6784,10 @@
         <v>10985588</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6796,10 +6810,10 @@
         <v>10985588</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6822,10 +6836,10 @@
         <v>10985381</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6865,7 +6879,7 @@
         <v>10985543</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
@@ -6874,10 +6888,10 @@
         <v>10985895</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -6891,7 +6905,7 @@
         <v>10985545</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -6900,7 +6914,7 @@
         <v>10985743</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>10</v>
@@ -6917,7 +6931,7 @@
         <v>10985557</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>87</v>
@@ -6926,10 +6940,10 @@
         <v>10985588</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6943,7 +6957,7 @@
         <v>10985557</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>87</v>
@@ -6952,10 +6966,10 @@
         <v>10985588</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6969,7 +6983,7 @@
         <v>10985557</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>87</v>
@@ -6978,10 +6992,10 @@
         <v>10985588</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -7004,10 +7018,10 @@
         <v>10985381</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -7021,7 +7035,7 @@
         <v>10985557</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>87</v>
@@ -7030,10 +7044,10 @@
         <v>10985588</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -7082,10 +7096,10 @@
         <v>10985381</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -7108,10 +7122,10 @@
         <v>10985588</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -7160,10 +7174,10 @@
         <v>10985381</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -7212,10 +7226,10 @@
         <v>10985588</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -7238,10 +7252,10 @@
         <v>10985381</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -7290,10 +7304,10 @@
         <v>10985588</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -7316,10 +7330,10 @@
         <v>10985588</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -7333,7 +7347,7 @@
         <v>10985545</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>12</v>
@@ -7342,7 +7356,7 @@
         <v>10985743</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>10</v>
@@ -7368,7 +7382,7 @@
         <v>10985743</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>10</v>
@@ -7394,10 +7408,10 @@
         <v>10985381</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -7420,10 +7434,10 @@
         <v>10985381</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -7437,7 +7451,7 @@
         <v>10985545</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>12</v>
@@ -7446,7 +7460,7 @@
         <v>10985743</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>10</v>
@@ -7498,10 +7512,10 @@
         <v>10985381</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -7550,10 +7564,10 @@
         <v>10985588</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -7576,10 +7590,10 @@
         <v>10985588</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -7602,10 +7616,10 @@
         <v>10985588</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -7628,10 +7642,10 @@
         <v>10985381</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -7654,10 +7668,10 @@
         <v>10985381</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -7680,7 +7694,7 @@
         <v>10985743</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>10</v>
@@ -7706,7 +7720,7 @@
         <v>10985743</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>10</v>
@@ -7732,7 +7746,7 @@
         <v>10985743</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>10</v>
@@ -7758,10 +7772,10 @@
         <v>10985381</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
